--- a/va_facility_data_2025-02-20/Savannah VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Savannah%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Savannah VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Savannah%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0d2cadaf9a77480abcad68b5443206fa"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R90a8857ddd20430b9dfe405d44b0fe8e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R45f7fea224fc479a994219ad1f043fc5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4efd72c3cd744745aea6125daabea76d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re18fd72aca73480a88c72273a3439e8a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R14656b48af28436d98e96bfb991af78d"/>
   </x:sheets>
 </x:workbook>
 </file>
